--- a/PdPDM/PdPDM_AttachTables.xlsx
+++ b/PdPDM/PdPDM_AttachTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Diagram</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,19 +61,7 @@
     <t>PARTY_APPLICATION</t>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
+    <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +535,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -574,7 +562,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -585,8 +573,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -596,7 +584,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -607,8 +595,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -619,7 +607,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -630,7 +618,7 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -641,7 +629,7 @@
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -652,7 +640,7 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -663,7 +651,7 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -674,7 +662,7 @@
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>

--- a/PdPDM/PdPDM_AttachTables.xlsx
+++ b/PdPDM/PdPDM_AttachTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Diagram</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,7 +61,23 @@
     <t>PARTY_APPLICATION</t>
   </si>
   <si>
-    <t>C</t>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,22 +551,22 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -572,9 +588,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -583,9 +599,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -594,9 +610,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -605,9 +621,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -616,9 +632,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -627,9 +643,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -638,9 +654,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -649,9 +665,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -660,9 +676,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
